--- a/第二反復/振り返り/74_開発体験シート.xlsx
+++ b/第二反復/振り返り/74_開発体験シート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FBBEAA-D9C5-406C-86F1-B5D8D6763344}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C5A259-037D-4F87-8A20-660C8AF1EEBB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
   <si>
     <t>体験項目</t>
     <rPh sb="0" eb="2">
@@ -539,6 +539,66 @@
   </si>
   <si>
     <t>●</t>
+  </si>
+  <si>
+    <t>細かい流れを明記することが後々重要になることが分かった。</t>
+    <rPh sb="0" eb="1">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>メイキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ノチノチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードに無駄がないか見直しすることも必要だと感じた。</t>
+    <rPh sb="4" eb="6">
+      <t>ムダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指摘事項を具体的に書くことが重要だと感じた。</t>
+    <rPh sb="0" eb="2">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1732,10 +1792,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1942,7 +2002,9 @@
         <f>IF(COUNTIF(E16:G16,"*●*"),"●",IF(COUNTIF(E16:G16,"*○*"),"○","－"))</f>
         <v>○</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="9" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="71"/>
@@ -1982,7 +2044,9 @@
         <f>IF(COUNTIF(E18:G18,"*●*"),"●",IF(COUNTIF(E18:G18,"*○*"),"○","－"))</f>
         <v>○</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="61"/>
@@ -2165,7 +2229,9 @@
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I27" s="5"/>
+      <c r="I27" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="28" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="61"/>
@@ -2391,6 +2457,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2560,35 +2641,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86AE9809-2BDF-4F5B-96B6-1BE2B508A423}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2610,9 +2666,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86AE9809-2BDF-4F5B-96B6-1BE2B508A423}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>